--- a/set_index_historical_data.xlsx
+++ b/set_index_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,551 +473,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13 ม.ค. 2026</t>
+          <t>01 ม.ค. 2026</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236.57</v>
+        <v>1235.3</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.11</v>
+        <v>1271.72</v>
       </c>
       <c r="D2" t="n">
-        <v>1250.89</v>
+        <v>1287.38</v>
       </c>
       <c r="E2" t="n">
-        <v>1235.57</v>
+        <v>1232.62</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.45B</t>
+          <t>18.36B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.45%</t>
+          <t>-1.93%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12 ม.ค. 2026</t>
+          <t>01 ธ.ค. 2025</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1242.2</v>
+        <v>1259.67</v>
       </c>
       <c r="C3" t="n">
-        <v>1258.2</v>
+        <v>1259.02</v>
       </c>
       <c r="D3" t="n">
-        <v>1259.68</v>
+        <v>1284.32</v>
       </c>
       <c r="E3" t="n">
-        <v>1241.47</v>
+        <v>1243.94</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.01B</t>
+          <t>111.96B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.95%</t>
+          <t>+0.24%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09 ม.ค. 2026</t>
+          <t>01 พ.ย. 2025</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1254.09</v>
+        <v>1256.69</v>
       </c>
       <c r="C4" t="n">
-        <v>1255.84</v>
+        <v>1315.69</v>
       </c>
       <c r="D4" t="n">
-        <v>1265.09</v>
+        <v>1317.48</v>
       </c>
       <c r="E4" t="n">
-        <v>1251.95</v>
+        <v>1248.89</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.27B</t>
+          <t>129.64B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>+0.04%</t>
+          <t>-4.03%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08 ม.ค. 2026</t>
+          <t>01 ต.ค. 2025</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.6</v>
+        <v>1309.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1263.12</v>
+        <v>1272.46</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.61</v>
+        <v>1345.86</v>
       </c>
       <c r="E5" t="n">
-        <v>1251.4</v>
+        <v>1266.38</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.57B</t>
+          <t>163.64B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.13%</t>
+          <t>+2.77%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07 ม.ค. 2026</t>
+          <t>01 ก.ย. 2025</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1280.82</v>
+        <v>1274.17</v>
       </c>
       <c r="C6" t="n">
-        <v>1273.68</v>
+        <v>1234.94</v>
       </c>
       <c r="D6" t="n">
-        <v>1281.04</v>
+        <v>1312.74</v>
       </c>
       <c r="E6" t="n">
-        <v>1272.83</v>
+        <v>1230.55</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.94B</t>
+          <t>201.70B</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>+0.48%</t>
+          <t>+3.04%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06 ม.ค. 2026</t>
+          <t>01 ส.ค. 2025</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1274.75</v>
+        <v>1236.61</v>
       </c>
       <c r="C7" t="n">
-        <v>1280.42</v>
+        <v>1252.5</v>
       </c>
       <c r="D7" t="n">
-        <v>1282.43</v>
+        <v>1283.55</v>
       </c>
       <c r="E7" t="n">
-        <v>1270.5</v>
+        <v>1212.68</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.84B</t>
+          <t>184.38B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.41%</t>
+          <t>-0.46%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05 ม.ค. 2026</t>
+          <t>01 ก.ค. 2025</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1280.05</v>
+        <v>1242.35</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.72</v>
+        <v>1094.91</v>
       </c>
       <c r="D8" t="n">
-        <v>1287.47</v>
+        <v>1251.16</v>
       </c>
       <c r="E8" t="n">
-        <v>1269.69</v>
+        <v>1086.56</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.72B</t>
+          <t>194.21B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+1.62%</t>
+          <t>+14.02%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 ธ.ค. 2025</t>
+          <t>01 มิ.ย. 2025</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1259.67</v>
+        <v>1089.56</v>
       </c>
       <c r="C9" t="n">
-        <v>1251.35</v>
+        <v>1147.66</v>
       </c>
       <c r="D9" t="n">
-        <v>1260.47</v>
+        <v>1149.68</v>
       </c>
       <c r="E9" t="n">
-        <v>1251.35</v>
+        <v>1053.79</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.33B</t>
+          <t>161.14B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>+0.45%</t>
+          <t>-5.19%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29 ธ.ค. 2025</t>
+          <t>01 พ.ค. 2025</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1254.03</v>
+        <v>1149.18</v>
       </c>
       <c r="C10" t="n">
-        <v>1258.71</v>
+        <v>1210.7</v>
       </c>
       <c r="D10" t="n">
-        <v>1260.67</v>
+        <v>1231.02</v>
       </c>
       <c r="E10" t="n">
-        <v>1246.83</v>
+        <v>1149.18</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.49B</t>
+          <t>168.89B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.41%</t>
+          <t>-4.02%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26 ธ.ค. 2025</t>
+          <t>01 เม.ย. 2025</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1259.25</v>
+        <v>1197.26</v>
       </c>
       <c r="C11" t="n">
-        <v>1265.16</v>
+        <v>1165.76</v>
       </c>
       <c r="D11" t="n">
-        <v>1267.3</v>
+        <v>1197.26</v>
       </c>
       <c r="E11" t="n">
-        <v>1256.35</v>
+        <v>1056.41</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.72B</t>
+          <t>155.03B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>+3.38%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25 ธ.ค. 2025</t>
+          <t>01 มี.ค. 2025</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264.77</v>
+        <v>1158.09</v>
       </c>
       <c r="C12" t="n">
-        <v>1274.72</v>
+        <v>1207.27</v>
       </c>
       <c r="D12" t="n">
-        <v>1274.92</v>
+        <v>1211.21</v>
       </c>
       <c r="E12" t="n">
-        <v>1262.41</v>
+        <v>1155.05</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.69B</t>
+          <t>175.19B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.83%</t>
+          <t>-3.79%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24 ธ.ค. 2025</t>
+          <t>01 ก.พ. 2025</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1275.33</v>
+        <v>1203.72</v>
       </c>
       <c r="C13" t="n">
-        <v>1272.58</v>
+        <v>1276.91</v>
       </c>
       <c r="D13" t="n">
-        <v>1275.33</v>
+        <v>1316.41</v>
       </c>
       <c r="E13" t="n">
-        <v>1269.02</v>
+        <v>1186.36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.16B</t>
+          <t>174.40B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>+0.33%</t>
+          <t>-8.43%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>23 ธ.ค. 2025</t>
+          <t>01 ม.ค. 2025</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1271.11</v>
+        <v>1314.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1272.42</v>
+        <v>1397.93</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.12</v>
+        <v>1399.35</v>
       </c>
       <c r="E14" t="n">
-        <v>1268.97</v>
+        <v>1310.72</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.97B</t>
+          <t>179.18B</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>+0.11%</t>
+          <t>-6.12%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>22 ธ.ค. 2025</t>
+          <t>01 ธ.ค. 2024</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1269.68</v>
+        <v>1400.21</v>
       </c>
       <c r="C15" t="n">
-        <v>1261.5</v>
+        <v>1430.55</v>
       </c>
       <c r="D15" t="n">
-        <v>1270.16</v>
+        <v>1457.71</v>
       </c>
       <c r="E15" t="n">
-        <v>1258.74</v>
+        <v>1361.34</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.79B</t>
+          <t>167.48B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>+1.40%</t>
+          <t>-1.91%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19 ธ.ค. 2025</t>
+          <t>01 พ.ย. 2024</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1252.19</v>
+        <v>1427.54</v>
       </c>
       <c r="C16" t="n">
-        <v>1254.32</v>
+        <v>1464.17</v>
       </c>
       <c r="D16" t="n">
-        <v>1257.5</v>
+        <v>1487.58</v>
       </c>
       <c r="E16" t="n">
-        <v>1248.35</v>
+        <v>1421.96</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.48B</t>
+          <t>266.98B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>+0.17%</t>
+          <t>-2.63%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18 ธ.ค. 2025</t>
+          <t>01 ต.ค. 2024</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1250.07</v>
+        <v>1466.04</v>
       </c>
       <c r="C17" t="n">
-        <v>1258.5</v>
+        <v>1449.81</v>
       </c>
       <c r="D17" t="n">
-        <v>1262.63</v>
+        <v>1506.82</v>
       </c>
       <c r="E17" t="n">
-        <v>1243.94</v>
+        <v>1432.22</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.85B</t>
+          <t>269.24B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>+1.19%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17 ธ.ค. 2025</t>
+          <t>01 ก.ย. 2024</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1256.85</v>
+        <v>1448.83</v>
       </c>
       <c r="C18" t="n">
-        <v>1261.85</v>
+        <v>1355.16</v>
       </c>
       <c r="D18" t="n">
-        <v>1265.17</v>
+        <v>1471.69</v>
       </c>
       <c r="E18" t="n">
-        <v>1255.12</v>
+        <v>1352.11</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.01B</t>
+          <t>239.78B</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-0.30%</t>
+          <t>+6.60%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 ธ.ค. 2025</t>
+          <t>01 ส.ค. 2024</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1260.68</v>
+        <v>1359.07</v>
       </c>
       <c r="C19" t="n">
-        <v>1269.07</v>
+        <v>1322.51</v>
       </c>
       <c r="D19" t="n">
-        <v>1269.07</v>
+        <v>1370.67</v>
       </c>
       <c r="E19" t="n">
-        <v>1258.54</v>
+        <v>1273.17</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.61B</t>
+          <t>203.12B</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-1.00%</t>
+          <t>+2.89%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15 ธ.ค. 2025</t>
+          <t>01 ก.ค. 2024</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1273.4</v>
+        <v>1320.86</v>
       </c>
       <c r="C20" t="n">
-        <v>1249.72</v>
+        <v>1301.96</v>
       </c>
       <c r="D20" t="n">
-        <v>1273.4</v>
+        <v>1332.76</v>
       </c>
       <c r="E20" t="n">
-        <v>1248.07</v>
+        <v>1286.79</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.27B</t>
+          <t>201.91B</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>+1.54%</t>
+          <t>+1.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01 มิ.ย. 2024</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1300.96</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1350.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1354.75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1281.87</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>232.87B</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-3.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01 พ.ค. 2024</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1345.66</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1368.24</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1389.28</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1340.83</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>271.20B</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-1.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01 เม.ย. 2024</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1367.95</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1379.86</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1411.46</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1330.24</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>239.45B</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-0.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01 มี.ค. 2024</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1377.94</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1369.63</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1395.88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1350.98</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>361.09B</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>+0.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01 ก.พ. 2024</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1370.67</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1363.65</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1405.13</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1357.39</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>388.31B</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>+0.45%</t>
         </is>
       </c>
     </row>
